--- a/exec/4_서울_2반_A201_시연시나리오.xlsx
+++ b/exec/4_서울_2반_A201_시연시나리오.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MULTIC~1\DOCUME~1\카카오~1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12348"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
   <si>
     <t>2-1</t>
   </si>
@@ -42,255 +42,255 @@
   </si>
   <si>
     <t>챌린지 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>왼쪽 상단에 있는 메뉴 버튼을 눌러 챌린지 탭으로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이지 상단에 있는 챌린지 생성 버튼을 클릭한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챌린지 이름을 2글자 이상 입력한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챌린지 주제를 선택한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챌린지 반복 주기를 선택한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챌린지를 실행할 기간을 선택한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챌린지 인증 시간을 선택한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챌린지 대표 이미지를 업로드하고 소개글을 작성한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이지 하단에 있는 개설하고 멋있게 도전하기! 버튼을 클릭하여 생성한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>왼쪽 상단에 있는 메뉴 버튼을 클릭하여 홈으로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>생성한 챌린지를 확인한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이지 상단의 탭들 중 가운데에 있는 오늘의 루틴 탭을 클릭한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오늘의 루틴을 확인한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>왼쪽 상단에 있는 메뉴 버튼을 클릭하여 루틴 설정 탭으로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이지 상단에 있는 루틴 생성 버튼을 클릭한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>루틴을 실행할 요일을 선택한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>선택한 요일에 루틴을 시작할 시간을 선택한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이지 하단에 있는 완료 버튼을 클릭하여 루틴을 생성한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>생성한 루틴을 클릭한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>루틴 이름 밑에 있는 네개의 버튼 중 가장 오른쪽에 있는 + 버튼을 클릭하여 습관을 추가한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나타난 모달창에서 왼쪽에 있는 새로운 습관 버튼을 클릭한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>습관의 제목, 내용을 입력한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>습관을 실행할 시간(분 단위)을 설정한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>습관을 실행하면서 시청하고 싶은 영상이 있다면 유튜브 링크를 설정한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모달창 하단에서 오른쪽에 위치한 저장 버튼을 눌러 습관을 추가한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>생성된 습관 밑에 있는 네개의 버튼 중 가장 오른쪽에 있는 + 버튼을 클릭하여 습관을 추가한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나타난 모달창에서 오른쪽에 있는 기존 습관 버튼을 클릭한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기존에 추가해놓은 습관 중 추가할 습관을 선택한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>드래그를 통하여 습관 순서를 변경한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>왼쪽 상단에 있는 메뉴 버튼을 클릭하여 홈 탭으로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오늘의 루틴 탭으로 이동하여 생성한 루틴과 습관을 확인한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이지 상단의 탭들 중 오른쪽에 있는 나의 일정 탭을 클릭한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일정 추가 버튼을 누른다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일정 내용을 한 글자 이상 입력한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시작일을 선택한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>종료일을 선택한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>원하는 태그 색상을 선택한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>완료 버튼을 클릭하여 일정을 추가한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>달력에 생성된 일정을 클릭한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>태그 색상을 변경한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수정 버튼을 눌러 일정 변경을 완료한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>삭제 버튼을 눌러 일정을 삭제한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챌린지 카드 중 한 개를 골라 카드 하단에 있는 상세보기 버튼을 클릭한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이지 하단의 챌린지 그만두기 버튼을 클릭하여 챌린지를 탈퇴한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>홈&gt;나의 챌린지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챌린지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>홈&gt;오늘의 루틴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>홈&gt;나의 일정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>루틴 설정&gt;습관 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>루틴 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로그인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로그인 미리 구현하여 첫 시작 페이지는 홈 화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시연 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챌린지 상세보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>챌린지 탈퇴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>루틴 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>습관 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일정 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일정 수정/삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TC-NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -305,7 +305,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -509,43 +509,43 @@
   </si>
   <si>
     <t>0-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>습관 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>달력에 추가되어있는 '인증'을 클릭하여 해당 날짜에 인증한 사진과 인증 내용을 확인한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>루틴 이름을 입력한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이지 하단의 '카테고리별 챌린지'에서 '운동', '공부' 클릭하여 해당 챌린지를 확인한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카드 하단의 상세보기 버튼을 클릭한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이미지 우측 하단에 위치한 하트를 클릭하여 관심 챌린지를 표시한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이지 하단의 참여하기! 버튼을 클릭하여 챌린지에 참여한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>페이지 하단의 왼쪽에 있는 뒤로가기 버튼을 클릭하여 챌린지 메인 페이지로 되돌아온다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나의 챌린지상세보기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -671,6 +671,129 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>스마트미러 전원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">날씨와 시간, 날짜등 기본 정보를 확인한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">참여중인 챌린지들을 확인한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">챌린지와 루틴을 확인하거나 사라지게 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">챌린지 인증을 통해 사진을 촬영하고 업로드한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루틴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진행중인 루틴을 확인한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아침루틴을 눌러서 루틴의 내용을 확인한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">루틴을 해야하는 시간을 기록하고 완료여부를 확인한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">루틴을 진행하며 동영상을 본다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">동영상 크기를 확대, 축소 시킨다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의 일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">달력에서 일정을 가져와 오늘의 일정을 확인한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">달력에 메모한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메모한 내용을 확인하고 체크박스로 기록한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스마트미러 앞에 사람이 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">박수를 쳐서 소리를 인식하고 스마트미로 화면이 켜진다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>5-11</t>
+  </si>
+  <si>
+    <t>5-12</t>
+  </si>
+  <si>
+    <t>5-13</t>
+  </si>
+  <si>
+    <t>5-14</t>
+  </si>
+  <si>
+    <t>스마트 미러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -680,15 +803,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,41 +924,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,37 +1259,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E56"/>
+  <dimension ref="B2:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
-    <col min="5" max="5" width="81.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="81.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1172,577 +1299,735 @@
       <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="10" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
         <v>44256</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
         <v>44257</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
         <v>44258</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="10" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
         <v>44259</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
         <v>44260</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="10" t="s">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
         <v>44261</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="10" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
         <v>44262</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="10" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
         <v>44263</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="10" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
         <v>44264</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
         <v>44265</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="10" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
         <v>44266</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="10" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
         <v>44267</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="10" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
         <v>44268</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="10" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
         <v>44269</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="10" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
         <v>44270</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="10" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
         <v>44271</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="10" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
         <v>44272</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="10" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
         <v>44273</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="10" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
         <v>44274</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="10" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
         <v>44275</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="10" t="s">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
         <v>44276</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B44" s="5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
         <v>44277</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="10" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B45" s="6">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
         <v>44287</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B46" s="6">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
         <v>44288</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="10" t="s">
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="6">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
         <v>44289</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="10" t="s">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="6">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="5">
         <v>44290</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="10" t="s">
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="6">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="5">
         <v>44291</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="10" t="s">
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="6">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="5">
         <v>44292</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="10" t="s">
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="6">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="5">
         <v>44293</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="10" t="s">
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="6">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
         <v>44294</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="10" t="s">
+      <c r="D52" s="14"/>
+      <c r="E52" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="6">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
         <v>44295</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="10" t="s">
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="6">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
         <v>44296</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="10" t="s">
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="6">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
         <v>44297</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="10" t="s">
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="6">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="5">
         <v>44298</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="10" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="8" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="C31:C42"/>
-    <mergeCell ref="C45:C51"/>
+  <mergeCells count="20">
+    <mergeCell ref="D57:D70"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D4:D17"/>
+    <mergeCell ref="C4:C9"/>
     <mergeCell ref="C52:C56"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D18:D22"/>
@@ -1750,10 +2035,13 @@
     <mergeCell ref="D31:D42"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D45:D56"/>
-    <mergeCell ref="D4:D17"/>
-    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="C31:C42"/>
+    <mergeCell ref="C45:C51"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
